--- a/aps1.xlsx
+++ b/aps1.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="624">
   <si>
     <t>Program Studi</t>
   </si>
@@ -2057,9 +2057,6 @@
     <t>REFERENCES 3.1.1</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>referensi ke 4.3.1</t>
   </si>
   <si>
@@ -2082,6 +2079,42 @@
   </si>
   <si>
     <t>refer ke 3A ke 6.2.3</t>
+  </si>
+  <si>
+    <t>Inputan manual dari user</t>
+  </si>
+  <si>
+    <t>Hanya edit data karena add data nya sudah oleh admin di kelola prodi</t>
+  </si>
+  <si>
+    <t>Select data ke table dosen</t>
+  </si>
+  <si>
+    <t>Kaprodi, Admin</t>
+  </si>
+  <si>
+    <t>Kaprodi, Admin, Akademik</t>
+  </si>
+  <si>
+    <t>Kaprodi, Admin, Student Tracer</t>
+  </si>
+  <si>
+    <t>Kaprodi,Admin, Keuangan</t>
+  </si>
+  <si>
+    <t>Kaprodi,Admin, General Affair</t>
+  </si>
+  <si>
+    <t>Kaprodi,Admin, Kepala Perpus</t>
+  </si>
+  <si>
+    <t>Kaprodi, Admin, Kepala Perpus</t>
+  </si>
+  <si>
+    <t>Dekan, Kaprodi, Admin, Keuangan</t>
+  </si>
+  <si>
+    <t>Kaprodi, Admin, Keuangan</t>
   </si>
 </sst>
 </file>
@@ -13682,13 +13715,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="33.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="64" customWidth="1"/>
     <col min="4" max="4" width="96.5" style="5" customWidth="1"/>
@@ -13706,25 +13739,43 @@
     </row>
     <row r="6" spans="1:5" ht="11.1" customHeight="1"/>
     <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>615</v>
+      </c>
       <c r="B7" s="160"/>
       <c r="C7" s="279"/>
       <c r="D7" s="155" t="s">
         <v>417</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>615</v>
+      </c>
       <c r="B8" s="161"/>
       <c r="C8" s="280"/>
       <c r="D8" s="156" t="s">
         <v>266</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>615</v>
+      </c>
       <c r="B9" s="162"/>
       <c r="C9" s="281"/>
       <c r="D9" s="157" t="s">
         <v>267</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="196" t="s">
@@ -13739,7 +13790,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B11" s="282" t="s">
         <v>537</v>
@@ -13753,7 +13804,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B12" s="283" t="s">
         <v>537</v>
@@ -13767,7 +13818,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B13" s="283" t="s">
         <v>537</v>
@@ -13781,7 +13832,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="B14" s="283" t="s">
         <v>537</v>
@@ -13800,7 +13851,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B16" s="283" t="s">
         <v>537</v>
@@ -13814,7 +13865,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B17" s="283" t="s">
         <v>537</v>
@@ -13828,7 +13879,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B18" s="283" t="s">
         <v>537</v>
@@ -13842,7 +13893,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B19" s="283" t="s">
         <v>537</v>
@@ -13856,7 +13907,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B20" s="283" t="s">
         <v>537</v>
@@ -13870,7 +13921,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B21" s="283" t="s">
         <v>537</v>
@@ -13884,7 +13935,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B22" s="283" t="s">
         <v>537</v>
@@ -13898,7 +13949,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B23" s="283" t="s">
         <v>537</v>
@@ -13912,7 +13963,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B24" s="283" t="s">
         <v>537</v>
@@ -13926,7 +13977,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B25" s="283" t="s">
         <v>537</v>
@@ -13940,7 +13991,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B26" s="283" t="s">
         <v>537</v>
@@ -13954,7 +14005,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B27" s="283" t="s">
         <v>537</v>
@@ -13968,7 +14019,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B28" s="283" t="s">
         <v>537</v>
@@ -13987,7 +14038,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B30" s="283" t="s">
         <v>537</v>
@@ -14001,7 +14052,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B31" s="283" t="s">
         <v>537</v>
@@ -14015,7 +14066,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B32" s="283" t="s">
         <v>537</v>
@@ -14029,7 +14080,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B33" s="283" t="s">
         <v>537</v>
@@ -14043,7 +14094,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B34" s="283" t="s">
         <v>537</v>
@@ -14057,7 +14108,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B35" s="283" t="s">
         <v>537</v>
@@ -14076,7 +14127,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B37" s="283" t="s">
         <v>537</v>
@@ -14090,7 +14141,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B38" s="283" t="s">
         <v>537</v>
@@ -14104,7 +14155,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B39" s="283" t="s">
         <v>537</v>
@@ -14118,7 +14169,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B40" s="283" t="s">
         <v>537</v>
@@ -14132,7 +14183,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B41" s="283" t="s">
         <v>537</v>
@@ -14146,7 +14197,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="B42" s="283" t="s">
         <v>537</v>
@@ -14160,7 +14211,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="B43" s="283" t="s">
         <v>537</v>
@@ -14174,7 +14225,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B44" s="283" t="s">
         <v>537</v>
@@ -14193,7 +14244,7 @@
     </row>
     <row r="46" spans="1:4" ht="37.5">
       <c r="A46" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B46" s="283" t="s">
         <v>537</v>
@@ -14207,7 +14258,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B47" s="283" t="s">
         <v>537</v>
@@ -14221,7 +14272,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B48" s="283" t="s">
         <v>537</v>
@@ -14235,7 +14286,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B49" s="283" t="s">
         <v>537</v>
@@ -14254,7 +14305,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B51" s="283" t="s">
         <v>551</v>
@@ -14268,7 +14319,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B52" s="283" t="s">
         <v>551</v>
@@ -14287,7 +14338,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B54" s="283" t="s">
         <v>551</v>
@@ -14299,12 +14350,12 @@
         <v>420</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B55" s="283" t="s">
         <v>551</v>
@@ -14318,7 +14369,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B56" s="283" t="s">
         <v>551</v>
@@ -14330,7 +14381,7 @@
         <v>577</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="12.95" customHeight="1">
@@ -14340,7 +14391,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="5" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="B58" s="283" t="s">
         <v>551</v>
@@ -14352,12 +14403,12 @@
         <v>578</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="B59" s="283" t="s">
         <v>551</v>
@@ -14369,12 +14420,12 @@
         <v>548</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="B60" s="283" t="s">
         <v>551</v>
@@ -14388,7 +14439,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B61" s="283" t="s">
         <v>551</v>
@@ -14400,7 +14451,7 @@
         <v>580</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.95" customHeight="1">
@@ -14409,8 +14460,8 @@
       <c r="D62" s="80"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5">
-        <v>45</v>
+      <c r="A63" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="B63" s="283" t="s">
         <v>551</v>
@@ -14422,12 +14473,12 @@
         <v>581</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5">
-        <v>46</v>
+      <c r="A64" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="B64" s="283" t="s">
         <v>551</v>
@@ -14439,7 +14490,7 @@
         <v>582</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="12.95" customHeight="1">
@@ -23163,7 +23214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H110"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -24223,8 +24274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
@@ -24380,7 +24431,9 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>612</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -25740,7 +25793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -30294,7 +30347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -30854,7 +30907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -31059,7 +31112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
@@ -31582,7 +31635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -31775,7 +31828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -31963,9 +32016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -32104,7 +32155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -32486,7 +32537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M19"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
+    <sheetView topLeftCell="E3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -32787,7 +32838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -34243,7 +34294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -39703,7 +39756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -40003,7 +40056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -40021,7 +40074,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.25">
@@ -40568,7 +40621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -40778,7 +40831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
@@ -41621,9 +41674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S19"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView topLeftCell="J1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
